--- a/Test protocol/Sprint_3/NO/System Test protocol_Braille DP2_Sprint 3_NO.xlsx
+++ b/Test protocol/Sprint_3/NO/System Test protocol_Braille DP2_Sprint 3_NO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\Sprint_3\NO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="131">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -582,6 +587,12 @@
   </si>
   <si>
     <t>Almost everything in place now.  Remains to test two things that Bert is working on+B7: rules for e-mailadress and emphasis (to separate bild and italic when they appear together)</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.54.whitespace.pef</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.55.whitespace.pef</t>
   </si>
 </sst>
 </file>
@@ -865,12 +876,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - uthevingsfarge 3" xfId="4" builtinId="38"/>
-    <cellStyle name="Hyperkobling" xfId="5" builtinId="8"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Overskrift 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Tittel" xfId="1" builtinId="15"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1145,7 +1156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,7 +1171,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
@@ -1170,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
     </row>
     <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1178,7 +1189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.9" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -1188,35 +1199,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
     </row>
     <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1224,25 +1235,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>116</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
     </row>
   </sheetData>
@@ -1280,16 +1291,16 @@
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,13 +1309,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1354,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1357,7 +1368,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1377,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1386,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1395,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1404,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1404,14 +1415,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1420,14 +1431,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
@@ -1438,7 +1449,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1458,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1467,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1476,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +1485,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1494,21 +1505,21 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
@@ -1519,7 +1530,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1539,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1548,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1557,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1575,14 +1586,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1608,16 +1619,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1626,13 +1637,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1689,7 +1700,7 @@
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1709,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1718,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1727,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1736,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1755,7 +1766,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -1763,7 +1774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -1779,7 +1790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -1787,7 +1798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1796,14 +1807,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
@@ -1814,7 +1825,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1834,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +1843,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1852,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1872,35 +1883,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1920,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1929,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1938,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +1947,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1967,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -1980,32 +1991,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2025,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2023,7 +2034,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2043,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2052,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2063,7 +2074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2071,7 +2082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2079,7 +2090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2087,7 +2098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2103,32 +2114,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2148,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2157,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -2155,7 +2166,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2175,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -2194,32 +2205,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2239,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -2237,7 +2248,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2257,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2266,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -2277,7 +2288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -2286,32 +2297,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2331,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +2340,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2349,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2358,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -2359,7 +2370,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -2379,7 +2390,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -2388,61 +2399,61 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B95" s="52"/>
       <c r="C95" s="53"/>
     </row>
-    <row r="96" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="54"/>
       <c r="B96" s="55"/>
       <c r="C96" s="56"/>
     </row>
-    <row r="97" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="54"/>
       <c r="B97" s="55"/>
       <c r="C97" s="58"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="35"/>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="28"/>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
     </row>
@@ -2480,20 +2491,20 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2502,13 +2513,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2525,7 +2536,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -2571,7 +2582,7 @@
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2591,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2589,7 +2600,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2598,7 +2609,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2618,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -2637,7 +2648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -2645,7 +2656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -2653,7 +2664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2678,7 +2689,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2687,7 +2698,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
@@ -2698,7 +2709,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2718,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2716,7 +2727,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2725,7 +2736,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2756,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2756,35 +2767,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2804,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2813,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2811,7 +2822,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -2820,7 +2831,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -2831,7 +2842,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2851,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -2856,7 +2867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2864,7 +2875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
@@ -2873,7 +2884,7 @@
       </c>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -2882,18 +2893,18 @@
       </c>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2913,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +2922,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2931,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2929,7 +2940,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2940,7 +2951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2959,7 +2970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2983,7 +2994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2991,7 +3002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -3000,7 +3011,7 @@
       </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -3009,18 +3020,18 @@
       </c>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3040,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +3049,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -3047,7 +3058,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3067,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -3086,32 +3097,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3131,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -3129,7 +3140,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -3138,7 +3149,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -3147,7 +3158,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -3166,10 +3177,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -3178,12 +3189,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3192,18 +3203,18 @@
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3223,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +3232,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -3230,7 +3241,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -3239,7 +3250,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3262,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -3259,10 +3270,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -3271,7 +3282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -3280,14 +3291,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
@@ -3296,18 +3307,18 @@
       </c>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +3327,7 @@
       </c>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="1:3" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>1</v>
       </c>
@@ -3325,7 +3336,7 @@
       </c>
       <c r="C97" s="43"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>2</v>
       </c>
@@ -3334,7 +3345,7 @@
       </c>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3354,7 @@
       </c>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="7" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
@@ -3354,7 +3365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>5</v>
       </c>
@@ -3363,75 +3374,75 @@
       </c>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" t="s">
         <v>77</v>
       </c>
       <c r="C102" s="34"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" t="s">
         <v>78</v>
       </c>
       <c r="C103" s="34"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B107" s="52"/>
       <c r="C107" s="53"/>
     </row>
-    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="54"/>
       <c r="B108" s="55"/>
       <c r="C108" s="56"/>
     </row>
-    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="54"/>
       <c r="B109" s="55"/>
       <c r="C109" s="58"/>
     </row>
-    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="11"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="35"/>
     </row>
-    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="28"/>
       <c r="C113" s="34"/>
     </row>
-    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
     </row>
@@ -3449,17 +3460,15 @@
     <hyperlink ref="C55" r:id="rId10"/>
     <hyperlink ref="C56" r:id="rId11"/>
     <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="E5" r:id="rId13"/>
+    <hyperlink ref="C90" r:id="rId14"/>
+    <hyperlink ref="E4" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId16"/>
+    <hyperlink ref="C53" r:id="rId17"/>
+    <hyperlink ref="C54" r:id="rId18"/>
+    <hyperlink ref="C91" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Test protocol/Sprint_3/NO/System Test protocol_Braille DP2_Sprint 3_NO.xlsx
+++ b/Test protocol/Sprint_3/NO/System Test protocol_Braille DP2_Sprint 3_NO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="132">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.55.whitespace.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.34.Norwegian%20uncontracted%20braille.2.pef</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -873,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2488,11 +2494,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2557,7 +2563,7 @@
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="71">
         <v>42270</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -2661,814 +2667,804 @@
         <v>80</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>83</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C23" s="43"/>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>110</v>
+      <c r="C27" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+    <row r="31" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="37" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C37" s="63" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="44"/>
+    </row>
     <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="B39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="B42" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>82</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-    </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+    <row r="44" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="50" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B50" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C50" s="64" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="51" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="B52" s="11" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="B57" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>83</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-    </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+    <row r="59" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="43"/>
+      <c r="C62" s="43"/>
+    </row>
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+    <row r="65" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C65" s="63" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>66</v>
+      <c r="B67" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="59" t="s">
-        <v>64</v>
-      </c>
+      <c r="A68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-    </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5" t="s">
+    <row r="70" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="12"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B73" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C73" s="43"/>
+    </row>
+    <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="63" t="s">
-        <v>110</v>
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A78" s="6"/>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>91</v>
+      <c r="A79" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B80" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-    </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="5" t="s">
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+    </row>
+    <row r="82" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="12"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="43"/>
+      <c r="C84" s="43"/>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="9"/>
-    </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="67"/>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="67"/>
+        <v>80</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A89" s="6"/>
       <c r="B89" s="14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>105</v>
-      </c>
+      <c r="A91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-    </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="5" t="s">
+    <row r="93" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+    </row>
+    <row r="94" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B96" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="43"/>
+      <c r="C96" s="43"/>
+    </row>
+    <row r="97" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="7" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="63" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A101" s="6"/>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C101" s="34"/>
     </row>
     <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C102" s="34"/>
     </row>
     <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
-      <c r="B103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="34"/>
+      <c r="A103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="9"/>
-    </row>
-    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-    </row>
-    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B107" s="52"/>
-      <c r="C107" s="53"/>
+    <row r="105" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+    </row>
+    <row r="106" spans="1:3" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B106" s="52"/>
+      <c r="C106" s="53"/>
+    </row>
+    <row r="107" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="54"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
     </row>
     <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="54"/>
       <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
-    </row>
-    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="54"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="58"/>
+      <c r="C108" s="58"/>
+    </row>
+    <row r="109" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="11"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="11"/>
-      <c r="C111" s="9"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="35"/>
     </row>
     <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="35"/>
-    </row>
-    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="34"/>
-    </row>
-    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="28"/>
+      <c r="C112" s="34"/>
+    </row>
+    <row r="113" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="11"/>
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="11"/>
-      <c r="C115" s="9"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C66" r:id="rId1"/>
     <hyperlink ref="C13" r:id="rId2"/>
     <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="E5" r:id="rId13"/>
-    <hyperlink ref="C90" r:id="rId14"/>
-    <hyperlink ref="E4" r:id="rId15"/>
-    <hyperlink ref="E3" r:id="rId16"/>
-    <hyperlink ref="C53" r:id="rId17"/>
-    <hyperlink ref="C54" r:id="rId18"/>
-    <hyperlink ref="C91" r:id="rId19"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C40" r:id="rId5"/>
+    <hyperlink ref="C41" r:id="rId6"/>
+    <hyperlink ref="C51" r:id="rId7"/>
+    <hyperlink ref="C54" r:id="rId8"/>
+    <hyperlink ref="C55" r:id="rId9"/>
+    <hyperlink ref="C56" r:id="rId10"/>
+    <hyperlink ref="E5" r:id="rId11"/>
+    <hyperlink ref="C89" r:id="rId12"/>
+    <hyperlink ref="E4" r:id="rId13"/>
+    <hyperlink ref="E3" r:id="rId14"/>
+    <hyperlink ref="C52" r:id="rId15"/>
+    <hyperlink ref="C53" r:id="rId16"/>
+    <hyperlink ref="C90" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Test protocol/Sprint_3/NO/System Test protocol_Braille DP2_Sprint 3_NO.xlsx
+++ b/Test protocol/Sprint_3/NO/System Test protocol_Braille DP2_Sprint 3_NO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="136">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -596,6 +596,18 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.34.Norwegian%20uncontracted%20braille.2.pef</t>
+  </si>
+  <si>
+    <t>NO (grade1)</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.37.Contractedbrailletest.grade1.pef</t>
+  </si>
+  <si>
+    <t>NO (grade2)</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.37.Contractedbrailletest.grade2.pef</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -2496,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -2859,18 +2871,18 @@
     </row>
     <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3450,19 +3462,19 @@
     <hyperlink ref="C13" r:id="rId2"/>
     <hyperlink ref="C15" r:id="rId3"/>
     <hyperlink ref="C17" r:id="rId4"/>
-    <hyperlink ref="C40" r:id="rId5"/>
-    <hyperlink ref="C41" r:id="rId6"/>
-    <hyperlink ref="C51" r:id="rId7"/>
-    <hyperlink ref="C54" r:id="rId8"/>
-    <hyperlink ref="C55" r:id="rId9"/>
-    <hyperlink ref="C56" r:id="rId10"/>
-    <hyperlink ref="E5" r:id="rId11"/>
-    <hyperlink ref="C89" r:id="rId12"/>
-    <hyperlink ref="E4" r:id="rId13"/>
-    <hyperlink ref="E3" r:id="rId14"/>
-    <hyperlink ref="C52" r:id="rId15"/>
-    <hyperlink ref="C53" r:id="rId16"/>
-    <hyperlink ref="C90" r:id="rId17"/>
+    <hyperlink ref="C51" r:id="rId5"/>
+    <hyperlink ref="C54" r:id="rId6"/>
+    <hyperlink ref="C55" r:id="rId7"/>
+    <hyperlink ref="C56" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="C89" r:id="rId10"/>
+    <hyperlink ref="E4" r:id="rId11"/>
+    <hyperlink ref="E3" r:id="rId12"/>
+    <hyperlink ref="C52" r:id="rId13"/>
+    <hyperlink ref="C53" r:id="rId14"/>
+    <hyperlink ref="C90" r:id="rId15"/>
+    <hyperlink ref="C41" r:id="rId16"/>
+    <hyperlink ref="C40" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
